--- a/com.cucumber.selenium/Test Cases/Test Cases.xlsx
+++ b/com.cucumber.selenium/Test Cases/Test Cases.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manzurulqayyum\git\SeleniumCu_FW\com.cucumber.selenium\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manzurulqayyum\git10\Sel_BDD\com.cucumber.selenium\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364396CF-7A3C-4605-B6FF-9DAF3373F7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF830CE-4DF4-44F3-B49D-49DBF406640B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F75F0DDF-AC83-4AF2-82A8-B219F5FA2F44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>Test Case_ID</t>
   </si>
@@ -44,45 +33,51 @@
     <t>Cucumber Feature</t>
   </si>
   <si>
+    <t>Test Case Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Prerequisite</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Excpected Results</t>
+  </si>
+  <si>
     <t>TC_01</t>
   </si>
   <si>
-    <t>Test Case Title</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Prerequisite</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>Excpected Results</t>
+    <t>nyctimes.feature</t>
   </si>
   <si>
     <t>Verify _Today's_Date_HomePage</t>
   </si>
   <si>
+    <t>Verify  if today's is displayed correctly in the home page as per America/New York time zone</t>
+  </si>
+  <si>
+    <t>User is in the home page of the website and verifies the correct date is dispalyed in the correct format.</t>
+  </si>
+  <si>
     <t>User should be on the home page of https://www.nytimes.com/</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Test Steps</t>
-  </si>
-  <si>
-    <t>User is in the home page of the website and verifies the correct date is dispalyed in the correct format.</t>
+    <t>The format of the date should be EEEE, MMMM dd, yyyy. Example- Monday, August 19, 2024</t>
   </si>
   <si>
     <t>User is in the home page of the website and verifies the date is dispalyed in the correct timezone.</t>
   </si>
   <si>
-    <t>The format of the date should be EEEE, MMMM dd, yyyy. Example- Monday, August 19, 2024</t>
-  </si>
-  <si>
     <t>The time zone of the date should be America/New_York</t>
   </si>
   <si>
@@ -92,19 +87,28 @@
     <t>Verify_Main_Menu_HomePage</t>
   </si>
   <si>
+    <t>Verify if main menu is displayed and has the correct number and list of items.</t>
+  </si>
+  <si>
+    <t>The user verifes that the main menu is displayed in the home page.</t>
+  </si>
+  <si>
     <t>The main menu should be displayed in the home page.</t>
   </si>
   <si>
-    <t>The user verifes that the main menu is displayed in the home page.</t>
-  </si>
-  <si>
     <t>The main menu should contain the expected number of items.</t>
   </si>
   <si>
+    <t>There should be 11 items in the menu</t>
+  </si>
+  <si>
     <t>Verify each items name is as expected,</t>
   </si>
   <si>
-    <t>There should be 11 items in the menu</t>
+    <t>U.S., World, Business, Arts, Lifestyle, Opinion, Audio, Games, Cooking, 	Wirecutter, The Athletic</t>
+  </si>
+  <si>
+    <t>The menu items should be displayed as per the test data.</t>
   </si>
   <si>
     <t>TC_03</t>
@@ -116,6 +120,9 @@
     <t>Verify if user is able to search for desired content and view relevant search results</t>
   </si>
   <si>
+    <t>User is in the home page and clicks on the search icon in the top left corner of the page.</t>
+  </si>
+  <si>
     <t>The search box should be displayed.</t>
   </si>
   <si>
@@ -125,6 +132,9 @@
     <t>The search box should allow typing the search keyword</t>
   </si>
   <si>
+    <t>Click on Search (magnify icon)</t>
+  </si>
+  <si>
     <t>The search results page should be displayed</t>
   </si>
   <si>
@@ -132,9 +142,6 @@
   </si>
   <si>
     <t>The page header should contain the search text</t>
-  </si>
-  <si>
-    <t>The search results header titles should contain the search keyword indicating relevance of the results</t>
   </si>
   <si>
     <r>
@@ -146,7 +153,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -154,16 +161,16 @@
     </r>
   </si>
   <si>
+    <t>The search results header titles should contain the search keyword indicating relevance of the results</t>
+  </si>
+  <si>
     <t>TC_04</t>
   </si>
   <si>
     <t>Verfiy_Login _Page_and_Login_Fuctionality</t>
   </si>
   <si>
-    <t>User is in the home page and clicks on the search icon in the top left corner of the page.</t>
-  </si>
-  <si>
-    <t>Click on Search (magnify icon)</t>
+    <t>Verify if the login page displays the email, social media login and school/work login buttons. And the user is able to enter the credentials and login.</t>
   </si>
   <si>
     <t>User is in the home page and clicks on the Log In button on the top right corner of the page.</t>
@@ -175,6 +182,12 @@
     <t>Verify the Log In page elements</t>
   </si>
   <si>
+    <t>Email text box, Continue Button, Cotinue with Google/Fscebook/Apple buttons, Continue with work/school link.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The page elements should be displayed in the login page as per the test data </t>
+  </si>
+  <si>
     <t>Enter the Email in the Email text field</t>
   </si>
   <si>
@@ -187,28 +200,32 @@
     <t>User should be redirected to the human verification page.</t>
   </si>
   <si>
-    <t>The menu items should be displayed as per the test data.</t>
-  </si>
-  <si>
-    <t>U.S., World, Business, Arts, Lifestyle, Opinion, Audio, Games, Cooking, 	Wirecutter, The Athletic</t>
-  </si>
-  <si>
-    <t>Email text box, Continue Button, Cotinue with Google/Fscebook/Apple buttons, Continue with work/school link.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The page elements should be displayed in the login page as per the test data </t>
-  </si>
-  <si>
-    <t>nyctimes.feature</t>
-  </si>
-  <si>
-    <t>Verify  if today's is displayed correctly in the home page as per America/New York time zone</t>
-  </si>
-  <si>
-    <t>Verify if main menu is displayed and has the correct number and list of items.</t>
-  </si>
-  <si>
-    <t>Verify if the login page displays the email, social media login and school/work login buttons. And the user is able to enter the credentials and login.</t>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verfiy_change_of_Edition</t>
+  </si>
+  <si>
+    <t>Verify if the user is able to change the edition of the website to any of Canad, International, Spanish and Chinese.</t>
+  </si>
+  <si>
+    <t>User is in the home page and clicks the desired language link above the NCT Times logo.</t>
+  </si>
+  <si>
+    <t>Verify the that the website navigates to the desired language edition verison.</t>
+  </si>
+  <si>
+    <t>Language links-
+Internaltional, Canada, Espanol, Chinese.</t>
+  </si>
+  <si>
+    <t>The respective laguage editon should be displayed.</t>
+  </si>
+  <si>
+    <t>The webpage URL should be as per the language chosen</t>
+  </si>
+  <si>
+    <t>Verify that the webpage URL</t>
   </si>
 </sst>
 </file>
@@ -219,7 +236,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -227,15 +252,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -249,7 +266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,13 +298,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,39 +339,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -381,26 +404,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -433,23 +439,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,6 +500,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -519,13 +515,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -590,70 +579,53 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7048DC9B-C6F5-413E-9CB7-51EC9C262F30}">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.21875" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="41.109375" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
     <col min="8" max="8" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -666,208 +638,208 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
+      <c r="A4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
+      <c r="A12" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="2" t="s">
@@ -878,35 +850,85 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>